--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_3_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_3_sawtooth_10_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.26000000000051</v>
+        <v>25.55000000000055</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.378603873947171e-06</v>
+        <v>1.362692110262742e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>6.016065533984123e-06</v>
+        <v>2.637387653543786e-06</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.491849119325293</v>
+        <v>5.550980196642649</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.236226842845298, 7.747471395805288]</t>
+          <t>[3.2386660630068356, 7.863294330278462]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.424324977212677e-06</v>
+        <v>3.316484054716184e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.848649954425355e-06</v>
+        <v>3.316484054716184e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.622684493746079</v>
+        <v>-1.383684452031541</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.138421425866926, -1.1069475616252324]</t>
+          <t>[-1.8491055858966954, -0.9182633181663862]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.589575360227968e-09</v>
+        <v>1.086076317768914e-08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.589575360227968e-09</v>
+        <v>1.086076317768914e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>10.42144617014284</v>
+        <v>10.70317608807971</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[8.986292709685406, 11.856599630600266]</t>
+          <t>[9.360875628743212, 12.04547654741621]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.523603603603735</v>
+        <v>5.626626626626749</v>
       </c>
       <c r="X2" t="n">
-        <v>4.450210210210301</v>
+        <v>3.734034034034114</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.59699699699717</v>
+        <v>7.519219219219383</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,41 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.74000000000043</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.679703504648856e-07</v>
+        <v>1.692220250482102e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>3.952223953904034e-06</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>8.891491867199399e-06</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.485301019485632e-14</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.915279499253049</v>
+        <v>5.507892094037089</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.118789585661929, 8.711769412844168]</t>
+          <t>[3.2442875762070553, 7.771496611867123]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.15633868748877e-05</v>
+        <v>2.693249301799483e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.15633868748877e-05</v>
+        <v>3.316484054716184e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.540947811912465</v>
+        <v>-3.107000542289004</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.018947895341543, -2.0629477284833877]</t>
+          <t>[-3.6478953735376978, -2.5661057110403105]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.725291449676046</v>
+        <v>9.679426197961195</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[8.249636383596872, 11.20094651575522]</t>
+          <t>[8.212458606273167, 11.146393789649224]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.00496496496514</v>
+        <v>12.16456456456477</v>
       </c>
       <c r="X3" t="n">
-        <v>8.122842842842983</v>
+        <v>10.04684684684701</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.88708708708729</v>
+        <v>14.28228228228252</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_3_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_3_sawtooth_10_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.55000000000055</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.362692110262742e-07</v>
+        <v>1.016065053094373e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>2.637387653543786e-06</v>
+        <v>7.488618707077388e-06</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.550980196642649</v>
+        <v>5.199193702536105</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.2386660630068356, 7.863294330278462]</t>
+          <t>[3.134581534867891, 7.263805870204319]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.316484054716184e-06</v>
+        <v>1.109103379359766e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.316484054716184e-06</v>
+        <v>1.109103379359766e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.383684452031541</v>
+        <v>-1.559789745926464</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8491055858966954, -0.9182633181663862]</t>
+          <t>[-2.0629477284833877, -1.0566317633695403]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.086076317768914e-08</v>
+        <v>2.678911315001642e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>1.086076317768914e-08</v>
+        <v>2.678911315001642e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>10.70317608807971</v>
+        <v>10.84196604108141</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.360875628743212, 12.04547654741621]</t>
+          <t>[9.497666896266232, 12.186265185896598]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.626626626626749</v>
+        <v>6.303023023023155</v>
       </c>
       <c r="X2" t="n">
-        <v>3.734034034034114</v>
+        <v>4.269789789789879</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.519219219219383</v>
+        <v>8.33625625625643</v>
       </c>
     </row>
     <row r="3">
@@ -652,41 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.60000000000041</v>
+        <v>24.48000000000039</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.692220250482102e-06</v>
+        <v>8.655163655779674e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>8.891491867199399e-06</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.485301019485632e-14</v>
-      </c>
+        <v>7.488618707077388e-06</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.507892094037089</v>
+        <v>5.746198921956678</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.2442875762070553, 7.771496611867123]</t>
+          <t>[3.5198198372373923, 7.972578006675963]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2.693249301799483e-06</v>
+        <v>6.829537184671608e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.316484054716184e-06</v>
+        <v>1.109103379359766e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.107000542289004</v>
+        <v>3.125868966634889</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.6478953735376978, -2.5661057110403105]</t>
+          <t>[2.6101320345140424, 3.641605898755736]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.679426197961195</v>
+        <v>9.890737087028658</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[8.212458606273167, 11.146393789649224]</t>
+          <t>[8.400748713746196, 11.380725460311119]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>12.16456456456477</v>
+        <v>12.30126126126146</v>
       </c>
       <c r="X3" t="n">
-        <v>10.04684684684701</v>
+        <v>10.29189189189206</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.28228228228252</v>
+        <v>14.31063063063086</v>
       </c>
     </row>
   </sheetData>
